--- a/raw_data/20200818_saline/20200818_Sensor0_Test_60.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_60.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB642FD-5EC0-420A-9065-BAB6D2D60DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>53102.889086</v>
+        <v>53102.889086000003</v>
       </c>
       <c r="B2" s="1">
-        <v>14.750803</v>
+        <v>14.750802999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>903.406000</v>
+        <v>903.40599999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.789000</v>
+        <v>-192.78899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>53113.277264</v>
+        <v>53113.277263999997</v>
       </c>
       <c r="G2" s="1">
         <v>14.753688</v>
       </c>
       <c r="H2" s="1">
-        <v>919.703000</v>
+        <v>919.70299999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.154000</v>
+        <v>-164.154</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>53123.748804</v>
+        <v>53123.748804000003</v>
       </c>
       <c r="L2" s="1">
-        <v>14.756597</v>
+        <v>14.756596999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>941.968000</v>
+        <v>941.96799999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.323000</v>
+        <v>-118.32299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>53134.272959</v>
+        <v>53134.272959000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>14.759520</v>
+        <v>14.75952</v>
       </c>
       <c r="R2" s="1">
-        <v>948.603000</v>
+        <v>948.60299999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.374000</v>
+        <v>-103.374</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>53144.852582</v>
@@ -541,28 +957,28 @@
         <v>14.762459</v>
       </c>
       <c r="W2" s="1">
-        <v>955.192000</v>
+        <v>955.19200000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.972300</v>
+        <v>-89.972300000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>53155.618248</v>
+        <v>53155.618247999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.765450</v>
+        <v>14.76545</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.640000</v>
+        <v>962.64</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.643800</v>
+        <v>-80.643799999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>53166.121067</v>
@@ -571,73 +987,73 @@
         <v>14.768367</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.739000</v>
+        <v>967.73900000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.406100</v>
+        <v>-80.406099999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>53176.248846</v>
+        <v>53176.248846000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.771180</v>
+        <v>14.771179999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.761000</v>
+        <v>975.76099999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.239900</v>
+        <v>-88.239900000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>53186.792799</v>
+        <v>53186.792799000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.774109</v>
+        <v>14.774108999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.106000</v>
+        <v>985.10599999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.358000</v>
+        <v>-103.358</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>53198.200784</v>
+        <v>53198.200784000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.777278</v>
+        <v>14.777278000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.655000</v>
+        <v>996.65499999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.097000</v>
+        <v>-125.09699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>53209.300785</v>
+        <v>53209.300784999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.780361</v>
+        <v>14.780360999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.430000</v>
+        <v>1006.43</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.980000</v>
+        <v>-143.97999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>53220.226658</v>
@@ -646,58 +1062,58 @@
         <v>14.783396</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.340000</v>
+        <v>1052.3399999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.171000</v>
+        <v>-229.17099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>53231.061238</v>
+        <v>53231.061238000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.786406</v>
+        <v>14.786405999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.433000</v>
+        <v>-365.43299999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>53242.154758</v>
+        <v>53242.154757999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.789487</v>
+        <v>14.789486999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.630000</v>
+        <v>1264.6300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.812000</v>
+        <v>-575.81200000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>53252.472041</v>
+        <v>53252.472041000001</v>
       </c>
       <c r="BT2" s="1">
         <v>14.792353</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.140000</v>
+        <v>1413.14</v>
       </c>
       <c r="BV2" s="1">
-        <v>-800.494000</v>
+        <v>-800.49400000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>53263.161818</v>
@@ -706,165 +1122,165 @@
         <v>14.795323</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.030000</v>
+        <v>1575.03</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1035.180000</v>
+        <v>-1035.18</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>53274.475099</v>
+        <v>53274.475099000003</v>
       </c>
       <c r="CD2" s="1">
         <v>14.798465</v>
       </c>
       <c r="CE2" s="1">
-        <v>1985.320000</v>
+        <v>1985.32</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1584.190000</v>
+        <v>-1584.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>53103.269983</v>
+        <v>53103.269982999998</v>
       </c>
       <c r="B3" s="1">
-        <v>14.750908</v>
+        <v>14.750908000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>903.548000</v>
+        <v>903.548</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.801000</v>
+        <v>-192.80099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>53113.652277</v>
+        <v>53113.652277000001</v>
       </c>
       <c r="G3" s="1">
-        <v>14.753792</v>
+        <v>14.753792000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.887000</v>
+        <v>919.88699999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.201000</v>
+        <v>-164.20099999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>53124.132739</v>
+        <v>53124.132739000001</v>
       </c>
       <c r="L3" s="1">
-        <v>14.756704</v>
+        <v>14.756703999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>941.912000</v>
+        <v>941.91200000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.282000</v>
+        <v>-118.282</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>53134.648390</v>
+        <v>53134.648390000002</v>
       </c>
       <c r="Q3" s="1">
         <v>14.759625</v>
       </c>
       <c r="R3" s="1">
-        <v>948.567000</v>
+        <v>948.56700000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>53145.569831</v>
+        <v>53145.569831000001</v>
       </c>
       <c r="V3" s="1">
         <v>14.762658</v>
       </c>
       <c r="W3" s="1">
-        <v>955.336000</v>
+        <v>955.33600000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.048200</v>
+        <v>-90.048199999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>53155.955064</v>
+        <v>53155.955064000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>14.765543</v>
+        <v>14.765542999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.636000</v>
+        <v>962.63599999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.698000</v>
+        <v>-80.697999999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>53166.501466</v>
+        <v>53166.501466000002</v>
       </c>
       <c r="AF3" s="1">
         <v>14.768473</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.950000</v>
+        <v>967.95</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.400400</v>
+        <v>-80.400400000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>53176.600508</v>
+        <v>53176.600508000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.771278</v>
+        <v>14.771278000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.782000</v>
+        <v>975.78200000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.268000</v>
+        <v>-88.268000000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>53187.159344</v>
       </c>
       <c r="AP3" s="1">
-        <v>14.774211</v>
+        <v>14.774210999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.086000</v>
+        <v>985.08600000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.378000</v>
+        <v>-103.378</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>53198.924453</v>
@@ -873,345 +1289,345 @@
         <v>14.777479</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.646000</v>
+        <v>996.64599999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.107000</v>
+        <v>-125.107</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>53209.716898</v>
+        <v>53209.716897999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.780477</v>
+        <v>14.780476999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.450000</v>
+        <v>1006.45</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.959000</v>
+        <v>-143.959</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>53220.674050</v>
+        <v>53220.674050000001</v>
       </c>
       <c r="BE3" s="1">
         <v>14.783521</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.340000</v>
+        <v>1052.3399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.154000</v>
+        <v>-229.154</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>53231.440678</v>
+        <v>53231.440677999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.786511</v>
+        <v>14.786511000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.445000</v>
+        <v>-365.44499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>53242.559029</v>
+        <v>53242.559028999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.789600</v>
+        <v>14.7896</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.869000</v>
+        <v>-575.86900000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>53252.904092</v>
+        <v>53252.904091999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>14.792473</v>
+        <v>14.792472999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.060000</v>
+        <v>1413.06</v>
       </c>
       <c r="BV3" s="1">
-        <v>-800.514000</v>
+        <v>-800.51400000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>53263.645447</v>
+        <v>53263.645447000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.795457</v>
+        <v>14.795457000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.040000</v>
+        <v>1575.04</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1035.240000</v>
+        <v>-1035.24</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>53275.102508</v>
+        <v>53275.102508000004</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.798640</v>
+        <v>14.798640000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.410000</v>
+        <v>1985.41</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1582.580000</v>
+        <v>-1582.58</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>53103.612717</v>
+        <v>53103.612717000004</v>
       </c>
       <c r="B4" s="1">
         <v>14.751004</v>
       </c>
       <c r="C4" s="1">
-        <v>903.507000</v>
+        <v>903.50699999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.680000</v>
+        <v>-192.68</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>53113.991999</v>
+        <v>53113.991998999998</v>
       </c>
       <c r="G4" s="1">
-        <v>14.753887</v>
+        <v>14.753887000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>919.795000</v>
+        <v>919.79499999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.894000</v>
+        <v>-163.89400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>53124.824129</v>
+        <v>53124.824129000001</v>
       </c>
       <c r="L4" s="1">
-        <v>14.756896</v>
+        <v>14.756895999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>941.928000</v>
+        <v>941.928</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.278000</v>
+        <v>-118.27800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>53135.344771</v>
+        <v>53135.344770999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.759818</v>
+        <v>14.759817999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.606000</v>
+        <v>948.60599999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.345000</v>
+        <v>-103.345</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>53145.913029</v>
+        <v>53145.913029000003</v>
       </c>
       <c r="V4" s="1">
-        <v>14.762754</v>
+        <v>14.762753999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>955.247000</v>
+        <v>955.24699999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.988200</v>
+        <v>-89.988200000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>53156.305735</v>
+        <v>53156.305735000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.765640</v>
+        <v>14.765639999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.590000</v>
+        <v>962.59</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.659400</v>
+        <v>-80.659400000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>53166.846185</v>
+        <v>53166.846185000002</v>
       </c>
       <c r="AF4" s="1">
         <v>14.768568</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.711000</v>
+        <v>967.71100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.320900</v>
+        <v>-80.320899999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>53177.251757</v>
+        <v>53177.251756999998</v>
       </c>
       <c r="AK4" s="1">
         <v>14.771459</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.782000</v>
+        <v>975.78200000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.252900</v>
+        <v>-88.252899999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>53187.826994</v>
+        <v>53187.826994000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.774396</v>
+        <v>14.774395999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.097000</v>
+        <v>985.09699999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.373000</v>
+        <v>-103.373</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>53199.346542</v>
+        <v>53199.346541999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.777596</v>
+        <v>14.777596000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.652000</v>
+        <v>996.65200000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.113000</v>
+        <v>-125.113</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>53210.074049</v>
+        <v>53210.074049000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.780576</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.430000</v>
+        <v>1006.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.966000</v>
+        <v>-143.96600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>53221.036099</v>
+        <v>53221.036098999997</v>
       </c>
       <c r="BE4" s="1">
         <v>14.783621</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.340000</v>
+        <v>1052.3399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.148000</v>
+        <v>-229.148</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>53231.844916</v>
+        <v>53231.844916000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.786624</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.441000</v>
+        <v>-365.44099999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>53242.978117</v>
+        <v>53242.978116999999</v>
       </c>
       <c r="BO4" s="1">
         <v>14.789716</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.869000</v>
+        <v>-575.86900000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>53253.319551</v>
+        <v>53253.319551000001</v>
       </c>
       <c r="BT4" s="1">
         <v>14.792589</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.080000</v>
+        <v>1413.08</v>
       </c>
       <c r="BV4" s="1">
-        <v>-800.544000</v>
+        <v>-800.54399999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>53264.094824</v>
@@ -1220,362 +1636,362 @@
         <v>14.795582</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.930000</v>
+        <v>1574.93</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>53275.554858</v>
+        <v>53275.554858000003</v>
       </c>
       <c r="CD4" s="1">
         <v>14.798765</v>
       </c>
       <c r="CE4" s="1">
-        <v>1984.070000</v>
+        <v>1984.07</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1582.210000</v>
+        <v>-1582.21</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>53104.294745</v>
+        <v>53104.294744999999</v>
       </c>
       <c r="B5" s="1">
-        <v>14.751193</v>
+        <v>14.751193000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>903.406000</v>
+        <v>903.40599999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.859000</v>
+        <v>-192.85900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>53114.684943</v>
       </c>
       <c r="G5" s="1">
-        <v>14.754079</v>
+        <v>14.754079000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.676000</v>
+        <v>919.67600000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.234000</v>
+        <v>-164.23400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>53125.169842</v>
+        <v>53125.169842000003</v>
       </c>
       <c r="L5" s="1">
         <v>14.756992</v>
       </c>
       <c r="M5" s="1">
-        <v>942.053000</v>
+        <v>942.053</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.284000</v>
+        <v>-118.28400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>53135.689491</v>
+        <v>53135.689490999997</v>
       </c>
       <c r="Q5" s="1">
         <v>14.759914</v>
       </c>
       <c r="R5" s="1">
-        <v>948.625000</v>
+        <v>948.625</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.377000</v>
+        <v>-103.377</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>53146.256295</v>
+        <v>53146.256294999999</v>
       </c>
       <c r="V5" s="1">
-        <v>14.762849</v>
+        <v>14.762848999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>955.218000</v>
+        <v>955.21799999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.972900</v>
+        <v>-89.972899999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>53156.970839</v>
+        <v>53156.970839000001</v>
       </c>
       <c r="AA5" s="1">
         <v>14.765825</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.643000</v>
+        <v>962.64300000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.651300</v>
+        <v>-80.651300000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>53167.504378</v>
+        <v>53167.504377999998</v>
       </c>
       <c r="AF5" s="1">
         <v>14.768751</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.584000</v>
+        <v>967.58399999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.346700</v>
+        <v>-80.346699999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>53177.648093</v>
+        <v>53177.648093000003</v>
       </c>
       <c r="AK5" s="1">
         <v>14.771569</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.763000</v>
+        <v>975.76300000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.233300</v>
+        <v>-88.2333</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>53188.238638</v>
+        <v>53188.238638000003</v>
       </c>
       <c r="AP5" s="1">
         <v>14.774511</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.085000</v>
+        <v>985.08500000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.382000</v>
+        <v>-103.38200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>53199.738879</v>
+        <v>53199.738878999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.777705</v>
+        <v>14.777704999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.648000</v>
+        <v>996.64800000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.074000</v>
+        <v>-125.074</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>53210.436628</v>
+        <v>53210.436628000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.780677</v>
+        <v>14.780677000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.440000</v>
+        <v>1006.44</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.955000</v>
+        <v>-143.95500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>53221.396689</v>
+        <v>53221.396689000001</v>
       </c>
       <c r="BE5" s="1">
         <v>14.783721</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.340000</v>
+        <v>1052.3399999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.177000</v>
+        <v>-229.17699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>53232.259087</v>
+        <v>53232.259086999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.786739</v>
+        <v>14.786739000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.446000</v>
+        <v>-365.44600000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>53243.373957</v>
+        <v>53243.373957000003</v>
       </c>
       <c r="BO5" s="1">
         <v>14.789826</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.640000</v>
+        <v>1264.6400000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.861000</v>
+        <v>-575.86099999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>53253.756184</v>
+        <v>53253.756183999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.792710</v>
+        <v>14.79271</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.060000</v>
+        <v>1413.06</v>
       </c>
       <c r="BV5" s="1">
-        <v>-800.533000</v>
+        <v>-800.53300000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>53264.552633</v>
+        <v>53264.552632999999</v>
       </c>
       <c r="BY5" s="1">
         <v>14.795709</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.370000</v>
+        <v>1575.37</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1035.420000</v>
+        <v>-1035.42</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>53276.071193</v>
+        <v>53276.071193000003</v>
       </c>
       <c r="CD5" s="1">
         <v>14.798909</v>
       </c>
       <c r="CE5" s="1">
-        <v>1984.170000</v>
+        <v>1984.17</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1583.980000</v>
+        <v>-1583.98</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>53104.638939</v>
+        <v>53104.638938999997</v>
       </c>
       <c r="B6" s="1">
         <v>14.751289</v>
       </c>
       <c r="C6" s="1">
-        <v>903.368000</v>
+        <v>903.36800000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.919000</v>
+        <v>-192.91900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>53115.027646</v>
+        <v>53115.027646000002</v>
       </c>
       <c r="G6" s="1">
-        <v>14.754174</v>
+        <v>14.754174000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>919.285000</v>
+        <v>919.28499999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.083000</v>
+        <v>-164.083</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>53125.517041</v>
+        <v>53125.517040999999</v>
       </c>
       <c r="L6" s="1">
         <v>14.757088</v>
       </c>
       <c r="M6" s="1">
-        <v>941.884000</v>
+        <v>941.88400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.275000</v>
+        <v>-118.27500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>53136.038674</v>
+        <v>53136.038674000003</v>
       </c>
       <c r="Q6" s="1">
         <v>14.760011</v>
       </c>
       <c r="R6" s="1">
-        <v>948.598000</v>
+        <v>948.59799999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.419000</v>
+        <v>-103.419</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>53146.914980</v>
+        <v>53146.914980000001</v>
       </c>
       <c r="V6" s="1">
-        <v>14.763032</v>
+        <v>14.763032000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.282000</v>
+        <v>955.28200000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.086700</v>
+        <v>-90.086699999999993</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>53157.351766</v>
@@ -1584,43 +2000,43 @@
         <v>14.765931</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.686000</v>
+        <v>962.68600000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.636900</v>
+        <v>-80.636899999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>53167.877054</v>
+        <v>53167.877053999997</v>
       </c>
       <c r="AF6" s="1">
         <v>14.768855</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.679000</v>
+        <v>967.67899999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.257100</v>
+        <v>-80.257099999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>53177.993772</v>
+        <v>53177.993772000002</v>
       </c>
       <c r="AK6" s="1">
         <v>14.771665</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.768000</v>
+        <v>975.76800000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.263800</v>
+        <v>-88.263800000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>53188.660248</v>
@@ -1629,300 +2045,300 @@
         <v>14.774628</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.093000</v>
+        <v>985.09299999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.342000</v>
+        <v>-103.342</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>53200.100461</v>
+        <v>53200.100461000002</v>
       </c>
       <c r="AU6" s="1">
         <v>14.777806</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.651000</v>
+        <v>996.65099999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.082000</v>
+        <v>-125.08199999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>53210.856705</v>
+        <v>53210.856704999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>14.780794</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.390000</v>
+        <v>1006.39</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.995000</v>
+        <v>-143.995</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>53221.831185</v>
+        <v>53221.831185000003</v>
       </c>
       <c r="BE6" s="1">
         <v>14.783842</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.340000</v>
+        <v>1052.3399999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.168000</v>
+        <v>-229.16800000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>53232.594899</v>
+        <v>53232.594899000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.786832</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.464000</v>
+        <v>-365.464</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>53243.790069</v>
+        <v>53243.790069000002</v>
       </c>
       <c r="BO6" s="1">
         <v>14.789942</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.830000</v>
+        <v>-575.83000000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>53254.184261</v>
+        <v>53254.184261000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>14.792829</v>
+        <v>14.792828999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.130000</v>
+        <v>1413.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-800.523000</v>
+        <v>-800.52300000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>53265.255463</v>
+        <v>53265.255463000001</v>
       </c>
       <c r="BY6" s="1">
         <v>14.795904</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.060000</v>
+        <v>1575.06</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1035.240000</v>
+        <v>-1035.24</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>53276.590046</v>
+        <v>53276.590045999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.799053</v>
+        <v>14.799053000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.750000</v>
+        <v>1985.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1582.990000</v>
+        <v>-1582.99</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>53104.977707</v>
+        <v>53104.977706999998</v>
       </c>
       <c r="B7" s="1">
-        <v>14.751383</v>
+        <v>14.751383000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>903.614000</v>
+        <v>903.61400000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-192.962000</v>
+        <v>-192.96199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>53115.372899</v>
+        <v>53115.372899000002</v>
       </c>
       <c r="G7" s="1">
-        <v>14.754270</v>
+        <v>14.75427</v>
       </c>
       <c r="H7" s="1">
-        <v>920.024000</v>
+        <v>920.024</v>
       </c>
       <c r="I7" s="1">
-        <v>-164.270000</v>
+        <v>-164.27</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>53126.178735</v>
+        <v>53126.178735000001</v>
       </c>
       <c r="L7" s="1">
         <v>14.757272</v>
       </c>
       <c r="M7" s="1">
-        <v>941.946000</v>
+        <v>941.94600000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.257000</v>
+        <v>-118.25700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>53136.663330</v>
+        <v>53136.663330000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.760184</v>
+        <v>14.760184000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.586000</v>
+        <v>948.58600000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.356000</v>
+        <v>-103.35599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>53147.293396</v>
+        <v>53147.293396000001</v>
       </c>
       <c r="V7" s="1">
         <v>14.763137</v>
       </c>
       <c r="W7" s="1">
-        <v>955.166000</v>
+        <v>955.16600000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.883100</v>
+        <v>-89.883099999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>53157.700950</v>
+        <v>53157.700949999999</v>
       </c>
       <c r="AA7" s="1">
         <v>14.766028</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.650000</v>
+        <v>962.65</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.625000</v>
+        <v>-80.625</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>53168.223110</v>
+        <v>53168.223109999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>14.768951</v>
+        <v>14.768950999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.814000</v>
+        <v>967.81399999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.278900</v>
+        <v>-80.278899999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>53178.343482</v>
+        <v>53178.343481999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.771762</v>
+        <v>14.771762000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.802000</v>
+        <v>975.80200000000002</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.253100</v>
+        <v>-88.253100000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>53189.316443</v>
+        <v>53189.316443000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.774810</v>
+        <v>14.77481</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.100000</v>
+        <v>985.1</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.364000</v>
+        <v>-103.364</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>53200.518094</v>
+        <v>53200.518093999999</v>
       </c>
       <c r="AU7" s="1">
         <v>14.777922</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.673000</v>
+        <v>996.673</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.089000</v>
+        <v>-125.089</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>53211.153807</v>
+        <v>53211.153807000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.780876</v>
+        <v>14.780875999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.410000</v>
+        <v>1006.41</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.964000</v>
+        <v>-143.964</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>53222.121346</v>
@@ -1931,105 +2347,105 @@
         <v>14.783923</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.340000</v>
+        <v>1052.3399999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.160000</v>
+        <v>-229.16</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>53232.969346</v>
+        <v>53232.969345999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.786936</v>
+        <v>14.786936000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.445000</v>
+        <v>-365.44499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>53244.189879</v>
+        <v>53244.189878999998</v>
       </c>
       <c r="BO7" s="1">
         <v>14.790053</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.859000</v>
+        <v>-575.85900000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>53254.595413</v>
+        <v>53254.595413000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.792943</v>
+        <v>14.792942999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.970000</v>
+        <v>1412.97</v>
       </c>
       <c r="BV7" s="1">
-        <v>-800.655000</v>
+        <v>-800.65499999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>53265.787639</v>
+        <v>53265.787639000002</v>
       </c>
       <c r="BY7" s="1">
         <v>14.796052</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.170000</v>
+        <v>1575.17</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1035.250000</v>
+        <v>-1035.25</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>53277.129688</v>
+        <v>53277.129688000001</v>
       </c>
       <c r="CD7" s="1">
         <v>14.799203</v>
       </c>
       <c r="CE7" s="1">
-        <v>1983.940000</v>
+        <v>1983.94</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1582.970000</v>
+        <v>-1582.97</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>53105.627002</v>
+        <v>53105.627002000001</v>
       </c>
       <c r="B8" s="1">
-        <v>14.751563</v>
+        <v>14.751563000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>903.452000</v>
+        <v>903.452</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.807000</v>
+        <v>-192.80699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>53116.022652</v>
@@ -2038,163 +2454,163 @@
         <v>14.754451</v>
       </c>
       <c r="H8" s="1">
-        <v>919.967000</v>
+        <v>919.96699999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.075000</v>
+        <v>-164.07499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>53126.543262</v>
+        <v>53126.543261999999</v>
       </c>
       <c r="L8" s="1">
-        <v>14.757373</v>
+        <v>14.757372999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>941.867000</v>
+        <v>941.86699999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.408000</v>
+        <v>-118.408</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>53137.084738</v>
+        <v>53137.084737999998</v>
       </c>
       <c r="Q8" s="1">
         <v>14.760301</v>
       </c>
       <c r="R8" s="1">
-        <v>948.551000</v>
+        <v>948.55100000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.376000</v>
+        <v>-103.376</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>53147.641091</v>
+        <v>53147.641090999998</v>
       </c>
       <c r="V8" s="1">
-        <v>14.763234</v>
+        <v>14.763234000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>955.155000</v>
+        <v>955.15499999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.882500</v>
+        <v>-89.882499999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>53158.049142</v>
+        <v>53158.049142000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.766125</v>
+        <v>14.766125000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.638000</v>
+        <v>962.63800000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.647200</v>
+        <v>-80.647199999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>53168.566343</v>
+        <v>53168.566342999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.769046</v>
+        <v>14.769045999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.687000</v>
+        <v>967.68700000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.288200</v>
+        <v>-80.288200000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>53178.756654</v>
+        <v>53178.756653999997</v>
       </c>
       <c r="AK8" s="1">
         <v>14.771877</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.773000</v>
+        <v>975.77300000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.226200</v>
+        <v>-88.226200000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>53189.725220</v>
+        <v>53189.72522</v>
       </c>
       <c r="AP8" s="1">
         <v>14.774924</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.097000</v>
+        <v>985.09699999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.340000</v>
+        <v>-103.34</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>53200.831565</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.778009</v>
+        <v>14.778009000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.656000</v>
+        <v>996.65599999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.069000</v>
+        <v>-125.069</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>53211.512415</v>
+        <v>53211.512414999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>14.780976</v>
+        <v>14.780976000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.440000</v>
+        <v>1006.44</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.969000</v>
+        <v>-143.96899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>53222.480981</v>
+        <v>53222.480981000001</v>
       </c>
       <c r="BE8" s="1">
         <v>14.784022</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.158000</v>
+        <v>-229.15799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>53233.352754</v>
@@ -2203,512 +2619,512 @@
         <v>14.787042</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.450000</v>
+        <v>-365.45</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>53244.616930</v>
+        <v>53244.616929999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.790171</v>
+        <v>14.790171000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.640000</v>
+        <v>1264.6400000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.901000</v>
+        <v>-575.90099999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>53255.022966</v>
+        <v>53255.022965999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.793062</v>
+        <v>14.793062000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.090000</v>
+        <v>1413.09</v>
       </c>
       <c r="BV8" s="1">
-        <v>-800.622000</v>
+        <v>-800.62199999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>53266.237510</v>
+        <v>53266.237509999999</v>
       </c>
       <c r="BY8" s="1">
         <v>14.796177</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.910000</v>
+        <v>1574.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1035.320000</v>
+        <v>-1035.32</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>53277.668807</v>
+        <v>53277.668807000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.799352</v>
+        <v>14.799352000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1985.110000</v>
+        <v>1985.11</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1584.070000</v>
+        <v>-1584.07</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>53106.003469</v>
+        <v>53106.003469000003</v>
       </c>
       <c r="B9" s="1">
         <v>14.751668</v>
       </c>
       <c r="C9" s="1">
-        <v>903.594000</v>
+        <v>903.59400000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.747000</v>
+        <v>-192.74700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>53116.407020</v>
+        <v>53116.407019999999</v>
       </c>
       <c r="G9" s="1">
-        <v>14.754558</v>
+        <v>14.754557999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>919.917000</v>
+        <v>919.91700000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.819000</v>
+        <v>-163.81899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>53126.897407</v>
+        <v>53126.897406999997</v>
       </c>
       <c r="L9" s="1">
         <v>14.757472</v>
       </c>
       <c r="M9" s="1">
-        <v>941.845000</v>
+        <v>941.84500000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.254000</v>
+        <v>-118.254</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>53137.435904</v>
+        <v>53137.435903999998</v>
       </c>
       <c r="Q9" s="1">
         <v>14.760399</v>
       </c>
       <c r="R9" s="1">
-        <v>948.579000</v>
+        <v>948.57899999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.352000</v>
+        <v>-103.352</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>53147.983332</v>
+        <v>53147.983332000003</v>
       </c>
       <c r="V9" s="1">
-        <v>14.763329</v>
+        <v>14.763329000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.285000</v>
+        <v>955.28499999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.960900</v>
+        <v>-89.960899999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>53158.473253</v>
+        <v>53158.473252999996</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.766243</v>
+        <v>14.766242999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.572000</v>
+        <v>962.572</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.492200</v>
+        <v>-80.492199999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>53168.993865</v>
+        <v>53168.993864999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.769165</v>
+        <v>14.769164999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.754000</v>
+        <v>967.75400000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.326700</v>
+        <v>-80.326700000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>53179.046318</v>
+        <v>53179.046318000001</v>
       </c>
       <c r="AK9" s="1">
         <v>14.771957</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.780000</v>
+        <v>975.78</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.234700</v>
+        <v>-88.234700000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>53190.085739</v>
+        <v>53190.085739000002</v>
       </c>
       <c r="AP9" s="1">
         <v>14.775024</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.111000</v>
+        <v>985.11099999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.362000</v>
+        <v>-103.36199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>53201.196621</v>
+        <v>53201.196621000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.778110</v>
+        <v>14.77811</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.655000</v>
+        <v>996.65499999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.095000</v>
+        <v>-125.095</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>53211.867054</v>
+        <v>53211.867054000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.781074</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.960000</v>
+        <v>-143.96</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>53222.842063</v>
+        <v>53222.842062999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.784123</v>
+        <v>14.784122999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.166000</v>
+        <v>-229.166</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>53234.114149</v>
+        <v>53234.114149000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.787254</v>
+        <v>14.787254000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.453000</v>
+        <v>-365.45299999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>53245.007250</v>
+        <v>53245.007250000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.790280</v>
+        <v>14.790279999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.827000</v>
+        <v>-575.827</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>53255.452010</v>
+        <v>53255.452010000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.793181</v>
+        <v>14.793181000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.100000</v>
+        <v>1413.1</v>
       </c>
       <c r="BV9" s="1">
-        <v>-800.588000</v>
+        <v>-800.58799999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>53266.659141</v>
+        <v>53266.659140999996</v>
       </c>
       <c r="BY9" s="1">
         <v>14.796294</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1035.180000</v>
+        <v>-1035.18</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>53278.519447</v>
+        <v>53278.519446999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.799589</v>
+        <v>14.799588999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1983.940000</v>
+        <v>1983.94</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1583.150000</v>
+        <v>-1583.15</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>53106.343193</v>
+        <v>53106.343193000001</v>
       </c>
       <c r="B10" s="1">
-        <v>14.751762</v>
+        <v>14.751761999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>903.424000</v>
+        <v>903.42399999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.922000</v>
+        <v>-192.922</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>53116.753725</v>
+        <v>53116.753725000002</v>
       </c>
       <c r="G10" s="1">
         <v>14.754654</v>
       </c>
       <c r="H10" s="1">
-        <v>919.781000</v>
+        <v>919.78099999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.695000</v>
+        <v>-163.69499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>53127.241659</v>
+        <v>53127.241658999999</v>
       </c>
       <c r="L10" s="1">
         <v>14.757567</v>
       </c>
       <c r="M10" s="1">
-        <v>941.810000</v>
+        <v>941.81</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.258000</v>
+        <v>-118.258</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>53137.852543</v>
+        <v>53137.852543000001</v>
       </c>
       <c r="Q10" s="1">
         <v>14.760515</v>
       </c>
       <c r="R10" s="1">
-        <v>948.643000</v>
+        <v>948.64300000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.329000</v>
+        <v>-103.32899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>53148.405923</v>
+        <v>53148.405922999998</v>
       </c>
       <c r="V10" s="1">
         <v>14.763446</v>
       </c>
       <c r="W10" s="1">
-        <v>955.117000</v>
+        <v>955.11699999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.968300</v>
+        <v>-89.968299999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>53158.752996</v>
+        <v>53158.752996000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.766320</v>
+        <v>14.76632</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.670000</v>
+        <v>962.67</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.644100</v>
+        <v>-80.644099999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>53169.267656</v>
+        <v>53169.267656000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>14.769241</v>
+        <v>14.769240999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.689000</v>
+        <v>967.68899999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.369500</v>
+        <v>-80.369500000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>53179.396457</v>
+        <v>53179.396457000003</v>
       </c>
       <c r="AK10" s="1">
         <v>14.772055</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.777000</v>
+        <v>975.77700000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.242400</v>
+        <v>-88.242400000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>53190.445867</v>
+        <v>53190.445867000002</v>
       </c>
       <c r="AP10" s="1">
         <v>14.775124</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.087000</v>
+        <v>985.08699999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.364000</v>
+        <v>-103.364</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>53201.561212</v>
+        <v>53201.561212000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.778211</v>
+        <v>14.778211000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.664000</v>
+        <v>996.66399999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.094000</v>
+        <v>-125.09399999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>53212.585758</v>
+        <v>53212.585758000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.781274</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.430000</v>
+        <v>1006.43</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.969000</v>
+        <v>-143.96899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>53223.567688</v>
+        <v>53223.567688000003</v>
       </c>
       <c r="BE10" s="1">
         <v>14.784324</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.310000</v>
+        <v>1052.31</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.146000</v>
+        <v>-229.14599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>53234.493552</v>
@@ -2717,482 +3133,482 @@
         <v>14.787359</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.465000</v>
+        <v>-365.46499999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>53245.427857</v>
+        <v>53245.427857000002</v>
       </c>
       <c r="BO10" s="1">
         <v>14.790397</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.846000</v>
+        <v>-575.846</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>53255.866691</v>
+        <v>53255.866691000003</v>
       </c>
       <c r="BT10" s="1">
         <v>14.793296</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.150000</v>
+        <v>1413.15</v>
       </c>
       <c r="BV10" s="1">
-        <v>-800.665000</v>
+        <v>-800.66499999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>53267.381817</v>
+        <v>53267.381817000001</v>
       </c>
       <c r="BY10" s="1">
         <v>14.796495</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1574.800000</v>
+        <v>1574.8</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1035.230000</v>
+        <v>-1035.23</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>53278.748630</v>
+        <v>53278.748630000002</v>
       </c>
       <c r="CD10" s="1">
         <v>14.799652</v>
       </c>
       <c r="CE10" s="1">
-        <v>1983.660000</v>
+        <v>1983.66</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1583.210000</v>
+        <v>-1583.21</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>53106.687914</v>
+        <v>53106.687914000002</v>
       </c>
       <c r="B11" s="1">
         <v>14.751858</v>
       </c>
       <c r="C11" s="1">
-        <v>903.487000</v>
+        <v>903.48699999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.775000</v>
+        <v>-192.77500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>53117.096955</v>
+        <v>53117.096955000001</v>
       </c>
       <c r="G11" s="1">
         <v>14.754749</v>
       </c>
       <c r="H11" s="1">
-        <v>920.230000</v>
+        <v>920.23</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.939000</v>
+        <v>-163.93899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>53127.669677</v>
+        <v>53127.669676999998</v>
       </c>
       <c r="L11" s="1">
         <v>14.757686</v>
       </c>
       <c r="M11" s="1">
-        <v>941.912000</v>
+        <v>941.91200000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.316000</v>
+        <v>-118.316</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>53138.149153</v>
+        <v>53138.149152999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.760597</v>
+        <v>14.760597000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.626000</v>
+        <v>948.62599999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.363000</v>
+        <v>-103.363</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>53148.684209</v>
+        <v>53148.684208999999</v>
       </c>
       <c r="V11" s="1">
-        <v>14.763523</v>
+        <v>14.763522999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.170000</v>
+        <v>955.17</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.924900</v>
+        <v>-89.924899999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>53159.102188</v>
+        <v>53159.102187999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.766417</v>
+        <v>14.766417000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.601000</v>
+        <v>962.601</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.593200</v>
+        <v>-80.593199999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>53169.607944</v>
+        <v>53169.607944000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.769336</v>
+        <v>14.769335999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.816000</v>
+        <v>967.81600000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.291700</v>
+        <v>-80.291700000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>53179.742664</v>
+        <v>53179.742663999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.772151</v>
+        <v>14.772150999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.774000</v>
+        <v>975.774</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.254100</v>
+        <v>-88.254099999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>53191.165561</v>
+        <v>53191.165561000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.775324</v>
+        <v>14.775323999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.083000</v>
+        <v>985.08299999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.365000</v>
+        <v>-103.36499999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>53202.288350</v>
+        <v>53202.288350000003</v>
       </c>
       <c r="AU11" s="1">
         <v>14.778413</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.654000</v>
+        <v>996.654</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.103000</v>
+        <v>-125.10299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>53212.975613</v>
+        <v>53212.975613000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.781382</v>
+        <v>14.781382000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.960000</v>
+        <v>-143.96</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>53223.946158</v>
+        <v>53223.946157999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>14.784429</v>
+        <v>14.784428999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.167000</v>
+        <v>-229.167</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>53234.868527</v>
+        <v>53234.868526999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.787463</v>
+        <v>14.787463000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.430000</v>
+        <v>-365.43</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>53246.143585</v>
+        <v>53246.143584999998</v>
       </c>
       <c r="BO11" s="1">
         <v>14.790595</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.833000</v>
+        <v>-575.83299999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>53256.611156</v>
+        <v>53256.611155999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.793503</v>
+        <v>14.793502999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.980000</v>
+        <v>1412.98</v>
       </c>
       <c r="BV11" s="1">
-        <v>-800.675000</v>
+        <v>-800.67499999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>53267.505817</v>
+        <v>53267.505816999997</v>
       </c>
       <c r="BY11" s="1">
         <v>14.796529</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.040000</v>
+        <v>1575.04</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>53279.267909</v>
+        <v>53279.267909000002</v>
       </c>
       <c r="CD11" s="1">
         <v>14.799797</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.980000</v>
+        <v>1984.98</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1584.450000</v>
+        <v>-1584.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>53107.107566</v>
+        <v>53107.107565999999</v>
       </c>
       <c r="B12" s="1">
-        <v>14.751974</v>
+        <v>14.751974000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>903.275000</v>
+        <v>903.27499999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.715000</v>
+        <v>-192.715</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>53117.519547</v>
+        <v>53117.519547000004</v>
       </c>
       <c r="G12" s="1">
-        <v>14.754867</v>
+        <v>14.754867000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>919.852000</v>
+        <v>919.85199999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.865000</v>
+        <v>-163.86500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>53127.955869</v>
+        <v>53127.955868999998</v>
       </c>
       <c r="L12" s="1">
         <v>14.757766</v>
       </c>
       <c r="M12" s="1">
-        <v>941.883000</v>
+        <v>941.88300000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.416000</v>
+        <v>-118.416</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>53138.497840</v>
+        <v>53138.497840000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.760694</v>
+        <v>14.760694000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.573000</v>
+        <v>948.57299999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.368000</v>
+        <v>-103.36799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>53149.024929</v>
+        <v>53149.024928999999</v>
       </c>
       <c r="V12" s="1">
-        <v>14.763618</v>
+        <v>14.763617999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.210000</v>
+        <v>955.21</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.914300</v>
+        <v>-89.914299999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>53159.451859</v>
+        <v>53159.451859000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.766514</v>
+        <v>14.766514000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.661000</v>
+        <v>962.66099999999994</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.596300</v>
+        <v>-80.596299999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>53169.953127</v>
+        <v>53169.953127000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>14.769431</v>
+        <v>14.769431000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.729000</v>
+        <v>967.72900000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.175100</v>
+        <v>-80.1751</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>53180.439544</v>
+        <v>53180.439544000001</v>
       </c>
       <c r="AK12" s="1">
         <v>14.772344</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.770000</v>
+        <v>975.77</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.216600</v>
+        <v>-88.2166</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>53191.554393</v>
+        <v>53191.554392999999</v>
       </c>
       <c r="AP12" s="1">
         <v>14.775432</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.094000</v>
+        <v>985.09400000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.329000</v>
+        <v>-103.32899999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>53202.680652</v>
+        <v>53202.680652000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.778522</v>
+        <v>14.778522000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.654000</v>
+        <v>996.654</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.116000</v>
+        <v>-125.116</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>53213.336701</v>
@@ -3201,106 +3617,106 @@
         <v>14.781482</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.968000</v>
+        <v>-143.96799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>53224.615725</v>
+        <v>53224.615725000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>14.784615</v>
+        <v>14.784615000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.330000</v>
+        <v>1052.33</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.158000</v>
+        <v>-229.15799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>53235.577838</v>
+        <v>53235.577837999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>14.787661</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.467000</v>
+        <v>-365.46699999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>53246.263131</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.790629</v>
+        <v>14.790628999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.610000</v>
+        <v>1264.6099999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.869000</v>
+        <v>-575.86900000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>53256.721763</v>
+        <v>53256.721763000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.793534</v>
+        <v>14.793533999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.090000</v>
+        <v>1413.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-800.610000</v>
+        <v>-800.61</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>53267.952180</v>
+        <v>53267.95218</v>
       </c>
       <c r="BY12" s="1">
-        <v>14.796653</v>
+        <v>14.796652999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.990000</v>
+        <v>1574.99</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1035.290000</v>
+        <v>-1035.29</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>53279.786724</v>
+        <v>53279.786723999998</v>
       </c>
       <c r="CD12" s="1">
         <v>14.799941</v>
       </c>
       <c r="CE12" s="1">
-        <v>1984.650000</v>
+        <v>1984.65</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1584.330000</v>
+        <v>-1584.33</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>53107.382393</v>
       </c>
@@ -3308,178 +3724,178 @@
         <v>14.752051</v>
       </c>
       <c r="C13" s="1">
-        <v>903.209000</v>
+        <v>903.20899999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.793000</v>
+        <v>-192.79300000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>53117.806731</v>
+        <v>53117.806730999997</v>
       </c>
       <c r="G13" s="1">
         <v>14.754946</v>
       </c>
       <c r="H13" s="1">
-        <v>919.738000</v>
+        <v>919.73800000000006</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.153000</v>
+        <v>-164.15299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>53128.303600</v>
+        <v>53128.303599999999</v>
       </c>
       <c r="L13" s="1">
-        <v>14.757862</v>
+        <v>14.757861999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.968000</v>
+        <v>941.96799999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.322000</v>
+        <v>-118.322</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>53138.837598</v>
+        <v>53138.837597999998</v>
       </c>
       <c r="Q13" s="1">
         <v>14.760788</v>
       </c>
       <c r="R13" s="1">
-        <v>948.592000</v>
+        <v>948.59199999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>53149.366710</v>
+        <v>53149.366710000002</v>
       </c>
       <c r="V13" s="1">
-        <v>14.763713</v>
+        <v>14.763712999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>955.273000</v>
+        <v>955.27300000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.959400</v>
+        <v>-89.959400000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>53160.148240</v>
+        <v>53160.148240000002</v>
       </c>
       <c r="AA13" s="1">
         <v>14.766708</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.551000</v>
+        <v>962.55100000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.652200</v>
+        <v>-80.652199999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>53170.637141</v>
+        <v>53170.637140999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.769621</v>
+        <v>14.769621000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.619000</v>
+        <v>967.61900000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.374600</v>
+        <v>-80.374600000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>53180.788727</v>
+        <v>53180.788726999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.772441</v>
+        <v>14.772441000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.797000</v>
+        <v>975.79700000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.245300</v>
+        <v>-88.2453</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>53191.913531</v>
+        <v>53191.913530999998</v>
       </c>
       <c r="AP13" s="1">
         <v>14.775532</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.093000</v>
+        <v>985.09299999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.359000</v>
+        <v>-103.35899999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>53203.047689</v>
+        <v>53203.047688999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.778624</v>
+        <v>14.778624000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.646000</v>
+        <v>996.64599999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.090000</v>
+        <v>-125.09</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>53214.004811</v>
+        <v>53214.004810999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>14.781668</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.410000</v>
+        <v>1006.41</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.979000</v>
+        <v>-143.97900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>53225.027933</v>
+        <v>53225.027932999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.784730</v>
+        <v>14.78473</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.181000</v>
+        <v>-229.18100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>53236.020999</v>
@@ -3488,43 +3904,43 @@
         <v>14.787784</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.428000</v>
+        <v>-365.428</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>53246.669345</v>
+        <v>53246.669345000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>14.790741</v>
+        <v>14.790741000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.640000</v>
+        <v>1264.6400000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.851000</v>
+        <v>-575.851</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>53257.159730</v>
+        <v>53257.159729999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.793655</v>
+        <v>14.793654999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.050000</v>
+        <v>1413.05</v>
       </c>
       <c r="BV13" s="1">
-        <v>-800.620000</v>
+        <v>-800.62</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>53268.382244</v>
@@ -3533,180 +3949,180 @@
         <v>14.796773</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.210000</v>
+        <v>1575.21</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1035.240000</v>
+        <v>-1035.24</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>53280.334309</v>
+        <v>53280.334308999998</v>
       </c>
       <c r="CD13" s="1">
         <v>14.800093</v>
       </c>
       <c r="CE13" s="1">
-        <v>1983.590000</v>
+        <v>1983.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1583.240000</v>
+        <v>-1583.24</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>53107.726535</v>
+        <v>53107.726535000002</v>
       </c>
       <c r="B14" s="1">
         <v>14.752146</v>
       </c>
       <c r="C14" s="1">
-        <v>903.519000</v>
+        <v>903.51900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.759000</v>
+        <v>-192.75899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>53118.148970</v>
+        <v>53118.148970000002</v>
       </c>
       <c r="G14" s="1">
         <v>14.755041</v>
       </c>
       <c r="H14" s="1">
-        <v>920.117000</v>
+        <v>920.11699999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.481000</v>
+        <v>-163.48099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>53128.647788</v>
+        <v>53128.647788000002</v>
       </c>
       <c r="L14" s="1">
         <v>14.757958</v>
       </c>
       <c r="M14" s="1">
-        <v>941.773000</v>
+        <v>941.77300000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.341000</v>
+        <v>-118.34099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>53139.543437</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.760984</v>
+        <v>14.760984000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>948.570000</v>
+        <v>948.57</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.342000</v>
+        <v>-103.342</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>53150.054626</v>
+        <v>53150.054625999997</v>
       </c>
       <c r="V14" s="1">
         <v>14.763904</v>
       </c>
       <c r="W14" s="1">
-        <v>955.182000</v>
+        <v>955.18200000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.930400</v>
+        <v>-89.930400000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>53160.493458</v>
+        <v>53160.493457999997</v>
       </c>
       <c r="AA14" s="1">
         <v>14.766804</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.642000</v>
+        <v>962.64200000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.629300</v>
+        <v>-80.629300000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>53171.003689</v>
+        <v>53171.003688999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.769723</v>
+        <v>14.769723000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.672000</v>
+        <v>967.67200000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.294600</v>
+        <v>-80.294600000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>53181.137414</v>
+        <v>53181.137413999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.772538</v>
+        <v>14.772538000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.776000</v>
+        <v>975.77599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.251500</v>
+        <v>-88.251499999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>53192.589576</v>
+        <v>53192.589575999998</v>
       </c>
       <c r="AP14" s="1">
         <v>14.775719</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.092000</v>
+        <v>985.09199999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.350000</v>
+        <v>-103.35</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>53203.711833</v>
+        <v>53203.711833000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>14.778809</v>
+        <v>14.778809000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.654000</v>
+        <v>996.654</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.077000</v>
+        <v>-125.077</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>53214.440338</v>
@@ -3715,255 +4131,255 @@
         <v>14.781789</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.440000</v>
+        <v>1006.44</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.958000</v>
+        <v>-143.958</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>53225.416765</v>
+        <v>53225.416765000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.784838</v>
+        <v>14.784838000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.330000</v>
+        <v>1052.33</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.157000</v>
+        <v>-229.15700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>53236.425471</v>
+        <v>53236.425471000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>14.787896</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.445000</v>
+        <v>-365.44499999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>53247.068166</v>
+        <v>53247.068165999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>14.790852</v>
+        <v>14.790851999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.815000</v>
+        <v>-575.81500000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>53257.573927</v>
+        <v>53257.573926999998</v>
       </c>
       <c r="BT14" s="1">
         <v>14.793771</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.000000</v>
+        <v>1413</v>
       </c>
       <c r="BV14" s="1">
-        <v>-800.692000</v>
+        <v>-800.69200000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>53268.803812</v>
+        <v>53268.803811999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.796890</v>
+        <v>14.796889999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.020000</v>
+        <v>1575.02</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1035.240000</v>
+        <v>-1035.24</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>53280.867011</v>
+        <v>53280.867011000002</v>
       </c>
       <c r="CD14" s="1">
         <v>14.800241</v>
       </c>
       <c r="CE14" s="1">
-        <v>1984.780000</v>
+        <v>1984.78</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1584.290000</v>
+        <v>-1584.29</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>53108.068807</v>
+        <v>53108.068807000003</v>
       </c>
       <c r="B15" s="1">
         <v>14.752241</v>
       </c>
       <c r="C15" s="1">
-        <v>903.425000</v>
+        <v>903.42499999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.776000</v>
+        <v>-192.77600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>53118.495710</v>
+        <v>53118.495710000003</v>
       </c>
       <c r="G15" s="1">
-        <v>14.755138</v>
+        <v>14.755138000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>919.896000</v>
+        <v>919.89599999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.300000</v>
+        <v>-164.3</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>53129.337227</v>
+        <v>53129.337227000004</v>
       </c>
       <c r="L15" s="1">
         <v>14.758149</v>
       </c>
       <c r="M15" s="1">
-        <v>941.826000</v>
+        <v>941.82600000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.400000</v>
+        <v>-118.4</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>53139.892125</v>
+        <v>53139.892124999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.761081</v>
+        <v>14.761081000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.598000</v>
+        <v>948.59799999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.347000</v>
+        <v>-103.34699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>53150.398384</v>
       </c>
       <c r="V15" s="1">
-        <v>14.764000</v>
+        <v>14.763999999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>955.321000</v>
+        <v>955.32100000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.985800</v>
+        <v>-89.985799999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>53160.846081</v>
+        <v>53160.846081000003</v>
       </c>
       <c r="AA15" s="1">
         <v>14.766902</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.681000</v>
+        <v>962.68100000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.597700</v>
+        <v>-80.597700000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>53171.336469</v>
+        <v>53171.336469000002</v>
       </c>
       <c r="AF15" s="1">
         <v>14.769816</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.686000</v>
+        <v>967.68600000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.471600</v>
+        <v>-80.471599999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>53181.789196</v>
+        <v>53181.789195999998</v>
       </c>
       <c r="AK15" s="1">
         <v>14.772719</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.760000</v>
+        <v>975.76</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.232700</v>
+        <v>-88.232699999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>53193.016633</v>
+        <v>53193.016632999999</v>
       </c>
       <c r="AP15" s="1">
         <v>14.775838</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.106000</v>
+        <v>985.10599999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.328000</v>
+        <v>-103.328</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>53204.139384</v>
+        <v>53204.139384000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.778928</v>
+        <v>14.778928000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.636000</v>
+        <v>996.63599999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.082000</v>
+        <v>-125.08199999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>53214.798938</v>
@@ -3972,88 +4388,88 @@
         <v>14.781889</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.967000</v>
+        <v>-143.96700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>53225.798189</v>
+        <v>53225.798189000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>14.784944</v>
+        <v>14.784943999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.330000</v>
+        <v>1052.33</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.153000</v>
+        <v>-229.15299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>53236.800941</v>
+        <v>53236.800941000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.788000</v>
+        <v>14.788</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.460000</v>
+        <v>-365.46</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>53247.490223</v>
+        <v>53247.490223000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>14.790970</v>
+        <v>14.79097</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.875000</v>
+        <v>-575.875</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>53258.070881</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.793909</v>
+        <v>14.793908999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.080000</v>
+        <v>1413.08</v>
       </c>
       <c r="BV15" s="1">
-        <v>-800.702000</v>
+        <v>-800.702</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>53269.225911</v>
+        <v>53269.225911000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.797007</v>
+        <v>14.797007000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.080000</v>
+        <v>1575.08</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>53281.387314</v>
@@ -4062,135 +4478,135 @@
         <v>14.800385</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.750000</v>
+        <v>1985.75</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1583.030000</v>
+        <v>-1583.03</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>53108.749784</v>
       </c>
       <c r="B16" s="1">
-        <v>14.752430</v>
+        <v>14.75243</v>
       </c>
       <c r="C16" s="1">
-        <v>903.490000</v>
+        <v>903.49</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.900000</v>
+        <v>-192.9</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>53119.185112</v>
+        <v>53119.185111999999</v>
       </c>
       <c r="G16" s="1">
         <v>14.755329</v>
       </c>
       <c r="H16" s="1">
-        <v>919.985000</v>
+        <v>919.98500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.688000</v>
+        <v>-163.68799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>53129.684954</v>
+        <v>53129.684953999997</v>
       </c>
       <c r="L16" s="1">
         <v>14.758246</v>
       </c>
       <c r="M16" s="1">
-        <v>941.978000</v>
+        <v>941.97799999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.246000</v>
+        <v>-118.246</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>53140.239329</v>
+        <v>53140.239329000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.761178</v>
+        <v>14.761177999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>948.630000</v>
+        <v>948.63</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.342000</v>
+        <v>-103.342</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>53150.741088</v>
+        <v>53150.741088000002</v>
       </c>
       <c r="V16" s="1">
-        <v>14.764095</v>
+        <v>14.764094999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>955.221000</v>
+        <v>955.221</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.854600</v>
+        <v>-89.854600000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>53161.502288</v>
+        <v>53161.502288000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>14.767084</v>
+        <v>14.767084000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.683000</v>
+        <v>962.68299999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.659700</v>
+        <v>-80.659700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>53171.788819</v>
+        <v>53171.788819000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.769941</v>
+        <v>14.769940999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.709000</v>
+        <v>967.70899999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.293600</v>
+        <v>-80.293599999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>53182.179013</v>
+        <v>53182.179013000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>14.772828</v>
+        <v>14.772828000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.763000</v>
+        <v>975.76300000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.241100</v>
+        <v>-88.241100000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>53193.377192</v>
@@ -4199,103 +4615,103 @@
         <v>14.775938</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.108000</v>
+        <v>985.10799999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>53204.505959</v>
+        <v>53204.505959000002</v>
       </c>
       <c r="AU16" s="1">
         <v>14.779029</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.658000</v>
+        <v>996.65800000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.085000</v>
+        <v>-125.08499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>53215.161978</v>
+        <v>53215.161977999996</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.781989</v>
+        <v>14.781988999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.965000</v>
+        <v>-143.965</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>53226.209867</v>
+        <v>53226.209866999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>14.785058</v>
+        <v>14.785057999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.330000</v>
+        <v>1052.33</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.181000</v>
+        <v>-229.18100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>53237.221067</v>
+        <v>53237.221066999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.788117</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.450000</v>
+        <v>-365.45</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>53247.883085</v>
+        <v>53247.883085000001</v>
       </c>
       <c r="BO16" s="1">
         <v>14.791079</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.630000</v>
+        <v>1264.6300000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.873000</v>
+        <v>-575.87300000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>53258.431011</v>
+        <v>53258.431011000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>14.794009</v>
+        <v>14.794009000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.110000</v>
+        <v>1413.11</v>
       </c>
       <c r="BV16" s="1">
-        <v>-800.668000</v>
+        <v>-800.66800000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>53269.652963</v>
@@ -4304,75 +4720,75 @@
         <v>14.797126</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.990000</v>
+        <v>1574.99</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1035.190000</v>
+        <v>-1035.19</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>53281.903153</v>
+        <v>53281.903152999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.800529</v>
+        <v>14.800528999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1984.180000</v>
+        <v>1984.18</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1582.300000</v>
+        <v>-1582.3</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>53109.093014</v>
+        <v>53109.093013999998</v>
       </c>
       <c r="B17" s="1">
         <v>14.752526</v>
       </c>
       <c r="C17" s="1">
-        <v>903.446000</v>
+        <v>903.44600000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-192.778000</v>
+        <v>-192.77799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>53119.531816</v>
+        <v>53119.531816000002</v>
       </c>
       <c r="G17" s="1">
         <v>14.755426</v>
       </c>
       <c r="H17" s="1">
-        <v>919.718000</v>
+        <v>919.71799999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.090000</v>
+        <v>-164.09</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>53130.035100</v>
+        <v>53130.035100000001</v>
       </c>
       <c r="L17" s="1">
         <v>14.758343</v>
       </c>
       <c r="M17" s="1">
-        <v>941.821000</v>
+        <v>941.82100000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.298000</v>
+        <v>-118.298</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>53140.902939</v>
@@ -4381,73 +4797,73 @@
         <v>14.761362</v>
       </c>
       <c r="R17" s="1">
-        <v>948.598000</v>
+        <v>948.59799999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>53151.397789</v>
+        <v>53151.397789000002</v>
       </c>
       <c r="V17" s="1">
         <v>14.764277</v>
       </c>
       <c r="W17" s="1">
-        <v>955.282000</v>
+        <v>955.28200000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.880300</v>
+        <v>-89.880300000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>53161.889201</v>
+        <v>53161.889200999998</v>
       </c>
       <c r="AA17" s="1">
         <v>14.767191</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.692000</v>
+        <v>962.69200000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.638200</v>
+        <v>-80.638199999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>53172.042776</v>
+        <v>53172.042776000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.770012</v>
+        <v>14.770011999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.685000</v>
+        <v>967.68499999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.369800</v>
+        <v>-80.369799999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>53182.532166</v>
+        <v>53182.532165999997</v>
       </c>
       <c r="AK17" s="1">
         <v>14.772926</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.779000</v>
+        <v>975.779</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.246000</v>
+        <v>-88.245999999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>53193.737813</v>
@@ -4456,602 +4872,602 @@
         <v>14.776038</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.101000</v>
+        <v>985.101</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.356000</v>
+        <v>-103.35599999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>53204.867015</v>
+        <v>53204.867015000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>14.779130</v>
+        <v>14.77913</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.645000</v>
+        <v>996.64499999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.091000</v>
+        <v>-125.09099999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>53215.591549</v>
+        <v>53215.591548999997</v>
       </c>
       <c r="AZ17" s="1">
         <v>14.782109</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.978000</v>
+        <v>-143.97800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>53226.519866</v>
+        <v>53226.519866000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.785144</v>
+        <v>14.785144000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.185000</v>
+        <v>-229.185</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>53237.574240</v>
+        <v>53237.574240000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>14.788215</v>
+        <v>14.788214999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.431000</v>
+        <v>-365.43099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>53248.304159</v>
+        <v>53248.304158999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.791196</v>
+        <v>14.791195999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.832000</v>
+        <v>-575.83199999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>53258.844676</v>
+        <v>53258.844676000001</v>
       </c>
       <c r="BT17" s="1">
         <v>14.794124</v>
       </c>
       <c r="BU17" s="1">
-        <v>1412.960000</v>
+        <v>1412.96</v>
       </c>
       <c r="BV17" s="1">
-        <v>-800.674000</v>
+        <v>-800.67399999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>53270.070593</v>
+        <v>53270.070592999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.797242</v>
+        <v>14.797242000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.150000</v>
+        <v>1575.15</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1035.200000</v>
+        <v>-1035.2</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>53282.423456</v>
+        <v>53282.423455999997</v>
       </c>
       <c r="CD17" s="1">
         <v>14.800673</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.040000</v>
+        <v>1985.04</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1582.200000</v>
+        <v>-1582.2</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>53109.436742</v>
+        <v>53109.436741999998</v>
       </c>
       <c r="B18" s="1">
         <v>14.752621</v>
       </c>
       <c r="C18" s="1">
-        <v>903.480000</v>
+        <v>903.48</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.880000</v>
+        <v>-192.88</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>53120.187559</v>
+        <v>53120.187558999998</v>
       </c>
       <c r="G18" s="1">
-        <v>14.755608</v>
+        <v>14.755608000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>920.209000</v>
+        <v>920.20899999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.368000</v>
+        <v>-164.36799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>53130.699770</v>
+        <v>53130.699769999999</v>
       </c>
       <c r="L18" s="1">
         <v>14.758528</v>
       </c>
       <c r="M18" s="1">
-        <v>941.852000</v>
+        <v>941.85199999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.396000</v>
+        <v>-118.396</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>53141.285355</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.761468</v>
+        <v>14.761468000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.547000</v>
+        <v>948.54700000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.375000</v>
+        <v>-103.375</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>53151.774253</v>
+        <v>53151.774253000003</v>
       </c>
       <c r="V18" s="1">
-        <v>14.764382</v>
+        <v>14.764381999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>955.328000</v>
+        <v>955.32799999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.836400</v>
+        <v>-89.836399999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>53162.239373</v>
+        <v>53162.239372999997</v>
       </c>
       <c r="AA18" s="1">
         <v>14.767289</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.682000</v>
+        <v>962.68200000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.643600</v>
+        <v>-80.643600000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>53172.384515</v>
+        <v>53172.384514999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.770107</v>
+        <v>14.770106999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.799000</v>
+        <v>967.79899999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.430400</v>
+        <v>-80.430400000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>53182.878406</v>
+        <v>53182.878406000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.773022</v>
+        <v>14.773021999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.774000</v>
+        <v>975.774</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.257600</v>
+        <v>-88.257599999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>53194.157398</v>
+        <v>53194.157398000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.776155</v>
+        <v>14.776154999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.107000</v>
+        <v>985.10699999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.351000</v>
+        <v>-103.351</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>53205.274232</v>
+        <v>53205.274232000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.779243</v>
+        <v>14.779242999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.637000</v>
+        <v>996.63699999999994</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.079000</v>
+        <v>-125.07899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>53215.877704</v>
+        <v>53215.877703999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>14.782188</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.410000</v>
+        <v>1006.41</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.954000</v>
+        <v>-143.95400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>53226.882444</v>
+        <v>53226.882444000003</v>
       </c>
       <c r="BE18" s="1">
         <v>14.785245</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.330000</v>
+        <v>1052.33</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.154000</v>
+        <v>-229.154</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>53237.950172</v>
+        <v>53237.950171999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.788319</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.447000</v>
+        <v>-365.447</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>53248.704957</v>
+        <v>53248.704957000002</v>
       </c>
       <c r="BO18" s="1">
         <v>14.791307</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.640000</v>
+        <v>1264.6400000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.864000</v>
+        <v>-575.86400000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>53259.274214</v>
+        <v>53259.274213999997</v>
       </c>
       <c r="BT18" s="1">
         <v>14.794243</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.070000</v>
+        <v>1413.07</v>
       </c>
       <c r="BV18" s="1">
-        <v>-800.720000</v>
+        <v>-800.72</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>53270.519970</v>
+        <v>53270.519970000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.797367</v>
+        <v>14.797366999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.890000</v>
+        <v>1574.89</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1035.130000</v>
+        <v>-1035.1300000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>53282.974512</v>
+        <v>53282.974512000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>14.800826</v>
+        <v>14.800826000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.830000</v>
+        <v>1985.83</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1583.270000</v>
+        <v>-1583.27</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>53110.087500</v>
+        <v>53110.087500000001</v>
       </c>
       <c r="B19" s="1">
-        <v>14.752802</v>
+        <v>14.752802000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>903.447000</v>
+        <v>903.447</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.685000</v>
+        <v>-192.685</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>53120.569942</v>
+        <v>53120.569942000002</v>
       </c>
       <c r="G19" s="1">
-        <v>14.755714</v>
+        <v>14.755713999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>919.836000</v>
+        <v>919.83600000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.774000</v>
+        <v>-163.774</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>53131.069257</v>
+        <v>53131.069257000003</v>
       </c>
       <c r="L19" s="1">
-        <v>14.758630</v>
+        <v>14.75863</v>
       </c>
       <c r="M19" s="1">
-        <v>941.969000</v>
+        <v>941.96900000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.256000</v>
+        <v>-118.256</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>53141.633051</v>
+        <v>53141.633050999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.761565</v>
+        <v>14.761564999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>948.579000</v>
+        <v>948.57899999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>53152.117485</v>
+        <v>53152.117485000002</v>
       </c>
       <c r="V19" s="1">
-        <v>14.764477</v>
+        <v>14.764476999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>955.126000</v>
+        <v>955.12599999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.949500</v>
+        <v>-89.9495</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>53162.585087</v>
+        <v>53162.585086999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.767385</v>
+        <v>14.767385000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.610000</v>
+        <v>962.61</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.653600</v>
+        <v>-80.653599999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>53172.803634</v>
+        <v>53172.803634000004</v>
       </c>
       <c r="AF19" s="1">
         <v>14.770223</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.799000</v>
+        <v>967.79899999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.401000</v>
+        <v>-80.400999999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>53183.290053</v>
+        <v>53183.290052999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>14.773136</v>
+        <v>14.773135999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.771000</v>
+        <v>975.77099999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.236400</v>
+        <v>-88.236400000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>53194.457871</v>
+        <v>53194.457870999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.776238</v>
+        <v>14.776237999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.099000</v>
+        <v>985.09900000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.358000</v>
+        <v>-103.358</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>53205.597158</v>
+        <v>53205.597157999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.779333</v>
+        <v>14.779332999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.630000</v>
+        <v>996.63</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.097000</v>
+        <v>-125.09699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>53216.236313</v>
+        <v>53216.236313000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.782288</v>
+        <v>14.782287999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.410000</v>
+        <v>1006.41</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.972000</v>
+        <v>-143.97200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>53227.241581</v>
+        <v>53227.241581000002</v>
       </c>
       <c r="BE19" s="1">
         <v>14.785345</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.182000</v>
+        <v>-229.18199999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>53238.326636</v>
+        <v>53238.326635999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.788424</v>
+        <v>14.788423999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.413000</v>
+        <v>-365.41300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>53249.125072</v>
+        <v>53249.125072000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>14.791424</v>
+        <v>14.791423999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.610000</v>
+        <v>1264.6099999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.864000</v>
+        <v>-575.86400000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>53259.702223</v>
@@ -5060,392 +5476,392 @@
         <v>14.794362</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.120000</v>
+        <v>1413.12</v>
       </c>
       <c r="BV19" s="1">
-        <v>-800.647000</v>
+        <v>-800.64700000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>53270.941108</v>
+        <v>53270.941107999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>14.797484</v>
+        <v>14.797484000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1574.960000</v>
+        <v>1574.96</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1035.210000</v>
+        <v>-1035.21</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>53283.506223</v>
+        <v>53283.506222999997</v>
       </c>
       <c r="CD19" s="1">
         <v>14.800974</v>
       </c>
       <c r="CE19" s="1">
-        <v>1984.540000</v>
+        <v>1984.54</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1582.240000</v>
+        <v>-1582.24</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>53110.459492</v>
+        <v>53110.459492000002</v>
       </c>
       <c r="B20" s="1">
         <v>14.752905</v>
       </c>
       <c r="C20" s="1">
-        <v>903.426000</v>
+        <v>903.42600000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.823000</v>
+        <v>-192.82300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>53120.913679</v>
+        <v>53120.913678999998</v>
       </c>
       <c r="G20" s="1">
-        <v>14.755809</v>
+        <v>14.755808999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>919.657000</v>
+        <v>919.65700000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.248000</v>
+        <v>-164.24799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>53131.412985</v>
+        <v>53131.412985000003</v>
       </c>
       <c r="L20" s="1">
-        <v>14.758726</v>
+        <v>14.758725999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>941.824000</v>
+        <v>941.82399999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.262000</v>
+        <v>-118.262</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>53141.983228</v>
+        <v>53141.983227999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>14.761662</v>
+        <v>14.761661999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.563000</v>
+        <v>948.56299999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.354000</v>
+        <v>-103.354</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>53152.465180</v>
+        <v>53152.465179999999</v>
       </c>
       <c r="V20" s="1">
         <v>14.764574</v>
       </c>
       <c r="W20" s="1">
-        <v>955.197000</v>
+        <v>955.197</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.937200</v>
+        <v>-89.937200000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>53163.002191</v>
       </c>
       <c r="AA20" s="1">
-        <v>14.767501</v>
+        <v>14.767500999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.609000</v>
+        <v>962.60900000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.628900</v>
+        <v>-80.628900000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>53173.081394</v>
+        <v>53173.081394000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>14.770300</v>
+        <v>14.770300000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.634000</v>
+        <v>967.63400000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.413700</v>
+        <v>-80.413700000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>53183.585667</v>
+        <v>53183.585666999999</v>
       </c>
       <c r="AK20" s="1">
         <v>14.773218</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.778000</v>
+        <v>975.77800000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.245300</v>
+        <v>-88.2453</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>53194.816084</v>
+        <v>53194.816083999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>14.776338</v>
+        <v>14.776338000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.100000</v>
+        <v>985.1</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.350000</v>
+        <v>-103.35</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>53205.961687</v>
+        <v>53205.961687000003</v>
       </c>
       <c r="AU20" s="1">
         <v>14.779434</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.643000</v>
+        <v>996.64300000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.088000</v>
+        <v>-125.08799999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>53216.595913</v>
+        <v>53216.595912999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>14.782388</v>
+        <v>14.782387999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.410000</v>
+        <v>1006.41</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.959000</v>
+        <v>-143.959</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>53227.965704</v>
+        <v>53227.965704000002</v>
       </c>
       <c r="BE20" s="1">
         <v>14.785546</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.171000</v>
+        <v>-229.17099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>53239.077116</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.788633</v>
+        <v>14.788633000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.426000</v>
+        <v>-365.42599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>53249.522333</v>
+        <v>53249.522333000001</v>
       </c>
       <c r="BO20" s="1">
         <v>14.791534</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.863000</v>
+        <v>-575.86300000000006</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>53260.113902</v>
+        <v>53260.113901999997</v>
       </c>
       <c r="BT20" s="1">
         <v>14.794476</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.130000</v>
+        <v>1413.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-800.760000</v>
+        <v>-800.76</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>53271.364192</v>
+        <v>53271.364192000001</v>
       </c>
       <c r="BY20" s="1">
         <v>14.797601</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.940000</v>
+        <v>1574.94</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1035.280000</v>
+        <v>-1035.28</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>53284.329615</v>
+        <v>53284.329615000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.801203</v>
+        <v>14.801202999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1983.560000</v>
+        <v>1983.56</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1583.560000</v>
+        <v>-1583.56</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>53110.803717</v>
+        <v>53110.803717000003</v>
       </c>
       <c r="B21" s="1">
-        <v>14.753001</v>
+        <v>14.753000999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>903.481000</v>
+        <v>903.48099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.776000</v>
+        <v>-192.77600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>53121.258887</v>
+        <v>53121.258887000004</v>
       </c>
       <c r="G21" s="1">
         <v>14.755905</v>
       </c>
       <c r="H21" s="1">
-        <v>919.862000</v>
+        <v>919.86199999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.565000</v>
+        <v>-163.565</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>53131.759688</v>
+        <v>53131.759687999998</v>
       </c>
       <c r="L21" s="1">
         <v>14.758822</v>
       </c>
       <c r="M21" s="1">
-        <v>941.869000</v>
+        <v>941.86900000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.123000</v>
+        <v>-118.123</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>53142.397883</v>
+        <v>53142.397882999998</v>
       </c>
       <c r="Q21" s="1">
         <v>14.761777</v>
       </c>
       <c r="R21" s="1">
-        <v>948.640000</v>
+        <v>948.64</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.356000</v>
+        <v>-103.35599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>53152.874381</v>
+        <v>53152.874381000001</v>
       </c>
       <c r="V21" s="1">
         <v>14.764687</v>
       </c>
       <c r="W21" s="1">
-        <v>955.277000</v>
+        <v>955.27700000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.954100</v>
+        <v>-89.954099999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>53163.295326</v>
+        <v>53163.295325999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.767582</v>
+        <v>14.767582000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.667000</v>
+        <v>962.66700000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.648500</v>
+        <v>-80.648499999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>53173.425616</v>
@@ -5454,467 +5870,467 @@
         <v>14.770396</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.723000</v>
+        <v>967.72299999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.220700</v>
+        <v>-80.220699999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>53183.937828</v>
+        <v>53183.937828000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.773316</v>
+        <v>14.773315999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.782000</v>
+        <v>975.78200000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.245900</v>
+        <v>-88.245900000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>53195.177206</v>
       </c>
       <c r="AP21" s="1">
-        <v>14.776438</v>
+        <v>14.776438000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.109000</v>
+        <v>985.10900000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.357000</v>
+        <v>-103.357</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>53206.600533</v>
+        <v>53206.600532999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.779611</v>
+        <v>14.779610999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.663000</v>
+        <v>996.66300000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.099000</v>
+        <v>-125.099</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>53217.312631</v>
+        <v>53217.312631000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.782587</v>
+        <v>14.782586999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.952000</v>
+        <v>-143.952</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>53228.351592</v>
+        <v>53228.351591999999</v>
       </c>
       <c r="BE21" s="1">
         <v>14.785653</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.300000</v>
+        <v>1052.3</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.150000</v>
+        <v>-229.15</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>53239.454041</v>
+        <v>53239.454040999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>14.788737</v>
+        <v>14.788736999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.427000</v>
+        <v>-365.42700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>53249.941986</v>
+        <v>53249.941985999998</v>
       </c>
       <c r="BO21" s="1">
         <v>14.791651</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.858000</v>
+        <v>-575.85799999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>53260.852020</v>
+        <v>53260.852019999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.794681</v>
+        <v>14.794681000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1412.990000</v>
+        <v>1412.99</v>
       </c>
       <c r="BV21" s="1">
-        <v>-800.761000</v>
+        <v>-800.76099999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>53272.133456</v>
+        <v>53272.133456000003</v>
       </c>
       <c r="BY21" s="1">
         <v>14.797815</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.970000</v>
+        <v>1574.97</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1035.210000</v>
+        <v>-1035.21</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>53284.540382</v>
+        <v>53284.540381999999</v>
       </c>
       <c r="CD21" s="1">
         <v>14.801261</v>
       </c>
       <c r="CE21" s="1">
-        <v>1984.900000</v>
+        <v>1984.9</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1584.270000</v>
+        <v>-1584.27</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>53111.144467</v>
+        <v>53111.144466999998</v>
       </c>
       <c r="B22" s="1">
-        <v>14.753096</v>
+        <v>14.753095999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>903.560000</v>
+        <v>903.56</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.017000</v>
+        <v>-193.017</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>53121.678005</v>
+        <v>53121.678005000002</v>
       </c>
       <c r="G22" s="1">
         <v>14.756022</v>
       </c>
       <c r="H22" s="1">
-        <v>920.104000</v>
+        <v>920.10400000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.778000</v>
+        <v>-163.77799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>53132.175833</v>
+        <v>53132.175833000001</v>
       </c>
       <c r="L22" s="1">
-        <v>14.758938</v>
+        <v>14.758938000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>942.024000</v>
+        <v>942.024</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.328000</v>
+        <v>-118.328</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>53142.691017</v>
+        <v>53142.691016999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>14.761859</v>
+        <v>14.761858999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>948.623000</v>
+        <v>948.62300000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>53153.170523</v>
+        <v>53153.170523000001</v>
       </c>
       <c r="V22" s="1">
-        <v>14.764770</v>
+        <v>14.76477</v>
       </c>
       <c r="W22" s="1">
-        <v>955.178000</v>
+        <v>955.178</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.976400</v>
+        <v>-89.976399999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>53163.644198</v>
+        <v>53163.644198000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.767679</v>
+        <v>14.767678999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.696000</v>
+        <v>962.69600000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.678400</v>
+        <v>-80.678399999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>53173.769872</v>
+        <v>53173.769871999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>14.770492</v>
+        <v>14.770492000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.692000</v>
+        <v>967.69200000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.466800</v>
+        <v>-80.466800000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>53184.286541</v>
+        <v>53184.286541000001</v>
       </c>
       <c r="AK22" s="1">
         <v>14.773413</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.772000</v>
+        <v>975.77200000000005</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.226000</v>
+        <v>-88.225999999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>53195.897363</v>
+        <v>53195.897362999996</v>
       </c>
       <c r="AP22" s="1">
         <v>14.776638</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.108000</v>
+        <v>985.10799999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.366000</v>
+        <v>-103.366</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>53206.721557</v>
+        <v>53206.721556999997</v>
       </c>
       <c r="AU22" s="1">
         <v>14.779645</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.654000</v>
+        <v>996.654</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.094000</v>
+        <v>-125.09399999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>53217.672231</v>
+        <v>53217.672230999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.782687</v>
+        <v>14.782686999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.979000</v>
+        <v>-143.97900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>53228.728584</v>
+        <v>53228.728583999997</v>
       </c>
       <c r="BE22" s="1">
         <v>14.785758</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.145000</v>
+        <v>-229.14500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>53239.826537</v>
+        <v>53239.826537000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>14.788841</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.463000</v>
+        <v>-365.46300000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>53250.649243</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.791847</v>
+        <v>14.791847000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.620000</v>
+        <v>1264.6199999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.877000</v>
+        <v>-575.87699999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>53260.972509</v>
+        <v>53260.972508999999</v>
       </c>
       <c r="BT22" s="1">
         <v>14.794715</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.070000</v>
+        <v>1413.07</v>
       </c>
       <c r="BV22" s="1">
-        <v>-800.742000</v>
+        <v>-800.74199999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>53272.241583</v>
+        <v>53272.241583000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>14.797845</v>
+        <v>14.797845000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.910000</v>
+        <v>1574.91</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1035.110000</v>
+        <v>-1035.1099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>53285.059197</v>
+        <v>53285.059197000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.801405</v>
+        <v>14.801405000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1984.280000</v>
+        <v>1984.28</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1584.020000</v>
+        <v>-1584.02</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>53111.562636</v>
+        <v>53111.562636000002</v>
       </c>
       <c r="B23" s="1">
         <v>14.753212</v>
       </c>
       <c r="C23" s="1">
-        <v>903.460000</v>
+        <v>903.46</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.748000</v>
+        <v>-192.74799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>53121.954809</v>
+        <v>53121.954809000003</v>
       </c>
       <c r="G23" s="1">
-        <v>14.756099</v>
+        <v>14.756099000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>920.115000</v>
+        <v>920.11500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.914000</v>
+        <v>-163.91399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>53132.474424</v>
       </c>
       <c r="L23" s="1">
-        <v>14.759021</v>
+        <v>14.759021000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>941.965000</v>
+        <v>941.96500000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.360000</v>
+        <v>-118.36</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>53143.039739</v>
@@ -5923,300 +6339,300 @@
         <v>14.761955</v>
       </c>
       <c r="R23" s="1">
-        <v>948.620000</v>
+        <v>948.62</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.382000</v>
+        <v>-103.38200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>53153.519179</v>
+        <v>53153.519179000003</v>
       </c>
       <c r="V23" s="1">
         <v>14.764866</v>
       </c>
       <c r="W23" s="1">
-        <v>955.211000</v>
+        <v>955.21100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.026400</v>
+        <v>-90.026399999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>53163.993197</v>
+        <v>53163.993197000003</v>
       </c>
       <c r="AA23" s="1">
         <v>14.767776</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.600000</v>
+        <v>962.6</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.666700</v>
+        <v>-80.666700000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>53174.455347</v>
+        <v>53174.455347000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.770682</v>
+        <v>14.770682000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.768000</v>
+        <v>967.76800000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.415500</v>
+        <v>-80.415499999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>53184.983891</v>
+        <v>53184.983891000003</v>
       </c>
       <c r="AK23" s="1">
         <v>14.773607</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.812000</v>
+        <v>975.81200000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.246500</v>
+        <v>-88.246499999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>53196.287220</v>
+        <v>53196.287219999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.776746</v>
+        <v>14.776745999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.103000</v>
+        <v>985.10299999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.366000</v>
+        <v>-103.366</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>53207.095044</v>
+        <v>53207.095044000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>14.779749</v>
+        <v>14.779749000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.640000</v>
+        <v>996.64</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.066000</v>
+        <v>-125.066</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>53218.030872</v>
+        <v>53218.030872000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>14.782786</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.970000</v>
+        <v>-143.97</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>53229.397689</v>
+        <v>53229.397688999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>14.785944</v>
+        <v>14.785944000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.350000</v>
+        <v>1052.3499999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.185000</v>
+        <v>-229.185</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>53240.507545</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.789030</v>
+        <v>14.78903</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.435000</v>
+        <v>-365.435</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>53250.774234</v>
+        <v>53250.774233999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.791882</v>
+        <v>14.791881999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.600000</v>
+        <v>1264.5999999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.832000</v>
+        <v>-575.83199999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>53261.382670</v>
+        <v>53261.382669999999</v>
       </c>
       <c r="BT23" s="1">
         <v>14.794829</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.090000</v>
+        <v>1413.09</v>
       </c>
       <c r="BV23" s="1">
-        <v>-800.753000</v>
+        <v>-800.75300000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>53272.679087</v>
+        <v>53272.679086999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.797966</v>
+        <v>14.797966000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.930000</v>
+        <v>1574.93</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1035.260000</v>
+        <v>-1035.26</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>53285.612236</v>
+        <v>53285.612236000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.801559</v>
+        <v>14.801558999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1983.460000</v>
+        <v>1983.46</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1583.660000</v>
+        <v>-1583.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>53111.846307</v>
       </c>
       <c r="B24" s="1">
-        <v>14.753291</v>
+        <v>14.753291000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>903.257000</v>
+        <v>903.25699999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.727000</v>
+        <v>-192.727</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>53122.299525</v>
+        <v>53122.299525000002</v>
       </c>
       <c r="G24" s="1">
-        <v>14.756194</v>
+        <v>14.756194000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>919.828000</v>
+        <v>919.82799999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.875000</v>
+        <v>-163.875</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>53132.818150</v>
+        <v>53132.818149999999</v>
       </c>
       <c r="L24" s="1">
-        <v>14.759116</v>
+        <v>14.759116000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>942.015000</v>
+        <v>942.01499999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.318000</v>
+        <v>-118.318</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>53143.392392</v>
+        <v>53143.392392000002</v>
       </c>
       <c r="Q24" s="1">
         <v>14.762053</v>
       </c>
       <c r="R24" s="1">
-        <v>948.585000</v>
+        <v>948.58500000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.356000</v>
+        <v>-103.35599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>53154.191754</v>
+        <v>53154.191753999999</v>
       </c>
       <c r="V24" s="1">
         <v>14.765053</v>
       </c>
       <c r="W24" s="1">
-        <v>955.324000</v>
+        <v>955.32399999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.989000</v>
+        <v>-89.989000000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>53164.690077</v>
+        <v>53164.690076999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.767969</v>
+        <v>14.767969000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.678000</v>
+        <v>962.678</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.641100</v>
+        <v>-80.641099999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>53174.800528</v>
@@ -6225,285 +6641,285 @@
         <v>14.770778</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.580000</v>
+        <v>967.58</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.258900</v>
+        <v>-80.258899999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>53185.330595</v>
+        <v>53185.330594999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.773703</v>
+        <v>14.773702999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.787000</v>
+        <v>975.78700000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.242100</v>
+        <v>-88.242099999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>53196.663186</v>
+        <v>53196.663185999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.776851</v>
+        <v>14.776851000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.097000</v>
+        <v>985.09699999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.347000</v>
+        <v>-103.34699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>53207.766627</v>
+        <v>53207.766626999997</v>
       </c>
       <c r="AU24" s="1">
         <v>14.779935</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.655000</v>
+        <v>996.65499999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.093000</v>
+        <v>-125.093</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>53218.708373</v>
+        <v>53218.708373000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.782975</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.950000</v>
+        <v>-143.94999999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>53229.812806</v>
+        <v>53229.812806000002</v>
       </c>
       <c r="BE24" s="1">
         <v>14.786059</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.310000</v>
+        <v>1052.31</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.164000</v>
+        <v>-229.16399999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>53240.950509</v>
+        <v>53240.950509000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.789153</v>
+        <v>14.789153000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.440000</v>
+        <v>-365.44</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>53251.186410</v>
+        <v>53251.186410000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.791996</v>
+        <v>14.791995999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.650000</v>
+        <v>1264.6500000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.844000</v>
+        <v>-575.84400000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>53261.817692</v>
+        <v>53261.817691999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.794949</v>
+        <v>14.794949000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.110000</v>
+        <v>1413.11</v>
       </c>
       <c r="BV24" s="1">
-        <v>-800.755000</v>
+        <v>-800.755</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>53273.100956</v>
+        <v>53273.100956000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.798084</v>
+        <v>14.798083999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.910000</v>
+        <v>1574.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1035.200000</v>
+        <v>-1035.2</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>53286.141963</v>
+        <v>53286.141963000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.801706</v>
+        <v>14.801705999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1985.070000</v>
+        <v>1985.07</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1584.170000</v>
+        <v>-1584.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>53112.188049</v>
+        <v>53112.188048999997</v>
       </c>
       <c r="B25" s="1">
-        <v>14.753386</v>
+        <v>14.753386000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>903.366000</v>
+        <v>903.36599999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.990000</v>
+        <v>-192.99</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>53122.647188</v>
+        <v>53122.647188000003</v>
       </c>
       <c r="G25" s="1">
-        <v>14.756291</v>
+        <v>14.756290999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>919.675000</v>
+        <v>919.67499999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.752000</v>
+        <v>-163.75200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>53133.163367</v>
+        <v>53133.163367000001</v>
       </c>
       <c r="L25" s="1">
         <v>14.759212</v>
       </c>
       <c r="M25" s="1">
-        <v>941.822000</v>
+        <v>941.822</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.247000</v>
+        <v>-118.247</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>53144.085802</v>
+        <v>53144.085802000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>14.762246</v>
+        <v>14.762245999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>948.612000</v>
+        <v>948.61199999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.364000</v>
+        <v>-103.364</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>53154.543946</v>
+        <v>53154.543945999998</v>
       </c>
       <c r="V25" s="1">
-        <v>14.765151</v>
+        <v>14.765150999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>955.282000</v>
+        <v>955.28200000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.795700</v>
+        <v>-89.795699999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>53165.038796</v>
+        <v>53165.038796000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.768066</v>
+        <v>14.768065999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.640000</v>
+        <v>962.64</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.669200</v>
+        <v>-80.669200000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>53175.144783</v>
+        <v>53175.144783000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.770874</v>
+        <v>14.770873999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.659000</v>
+        <v>967.65899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.416800</v>
+        <v>-80.416799999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>53185.678290</v>
+        <v>53185.678290000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.773800</v>
+        <v>14.7738</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.781000</v>
+        <v>975.78099999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.273400</v>
+        <v>-88.273399999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>53197.333777</v>
@@ -6512,392 +6928,393 @@
         <v>14.777037</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.078000</v>
+        <v>985.07799999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.348000</v>
+        <v>-103.348</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>53208.188723</v>
+        <v>53208.188722999999</v>
       </c>
       <c r="AU25" s="1">
         <v>14.780052</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.650000</v>
+        <v>996.65</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.084000</v>
+        <v>-125.084</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>53219.106166</v>
+        <v>53219.106165999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.783085</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.420000</v>
+        <v>1006.42</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.975000</v>
+        <v>-143.97499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>53230.204856</v>
+        <v>53230.204855999997</v>
       </c>
       <c r="BE25" s="1">
         <v>14.786168</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.320000</v>
+        <v>1052.32</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.189000</v>
+        <v>-229.18899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>53241.327928</v>
+        <v>53241.327927999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.789258</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.436000</v>
+        <v>-365.43599999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>53251.582217</v>
+        <v>53251.582217000003</v>
       </c>
       <c r="BO25" s="1">
         <v>14.792106</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.848000</v>
+        <v>-575.84799999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>53262.244251</v>
+        <v>53262.244250999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.795068</v>
+        <v>14.795068000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.050000</v>
+        <v>1413.05</v>
       </c>
       <c r="BV25" s="1">
-        <v>-800.764000</v>
+        <v>-800.76400000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>53273.528702</v>
+        <v>53273.528702000003</v>
       </c>
       <c r="BY25" s="1">
         <v>14.798202</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.960000</v>
+        <v>1574.96</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1035.290000</v>
+        <v>-1035.29</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>53286.657308</v>
+        <v>53286.657308000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.801849</v>
+        <v>14.801849000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.910000</v>
+        <v>1985.91</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1582.990000</v>
+        <v>-1582.99</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>53112.529793</v>
+        <v>53112.529793000002</v>
       </c>
       <c r="B26" s="1">
-        <v>14.753480</v>
+        <v>14.75348</v>
       </c>
       <c r="C26" s="1">
-        <v>903.499000</v>
+        <v>903.49900000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.752000</v>
+        <v>-192.75200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>53123.335139</v>
+        <v>53123.335139000003</v>
       </c>
       <c r="G26" s="1">
         <v>14.756482</v>
       </c>
       <c r="H26" s="1">
-        <v>920.226000</v>
+        <v>920.226</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.801000</v>
+        <v>-163.80099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>53133.852837</v>
+        <v>53133.852836999999</v>
       </c>
       <c r="L26" s="1">
         <v>14.759404</v>
       </c>
       <c r="M26" s="1">
-        <v>941.880000</v>
+        <v>941.88</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.161000</v>
+        <v>-118.161</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>53144.435976</v>
+        <v>53144.435976000001</v>
       </c>
       <c r="Q26" s="1">
         <v>14.762343</v>
       </c>
       <c r="R26" s="1">
-        <v>948.619000</v>
+        <v>948.61900000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.361000</v>
+        <v>-103.361</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>53154.883177</v>
+        <v>53154.883177000003</v>
       </c>
       <c r="V26" s="1">
         <v>14.765245</v>
       </c>
       <c r="W26" s="1">
-        <v>955.215000</v>
+        <v>955.21500000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.859100</v>
+        <v>-89.859099999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>53165.385468</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.768163</v>
+        <v>14.768162999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.694000</v>
+        <v>962.69399999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.769600</v>
+        <v>-80.769599999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>53175.795999</v>
+        <v>53175.795999000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>14.771054</v>
+        <v>14.771053999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.729000</v>
+        <v>967.72900000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.316500</v>
+        <v>-80.316500000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>53186.343424</v>
+        <v>53186.343423999999</v>
       </c>
       <c r="AK26" s="1">
         <v>14.773984</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.783000</v>
+        <v>975.78300000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.240600</v>
+        <v>-88.240600000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>53197.748466</v>
+        <v>53197.748465999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.777152</v>
+        <v>14.777151999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.116000</v>
+        <v>985.11599999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.340000</v>
+        <v>-103.34</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>53208.550802</v>
+        <v>53208.550801999998</v>
       </c>
       <c r="AU26" s="1">
         <v>14.780153</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.641000</v>
+        <v>996.64099999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.076000</v>
+        <v>-125.07599999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>53219.489079</v>
+        <v>53219.489078999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.783191</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.410000</v>
+        <v>1006.41</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.964000</v>
+        <v>-143.964</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>53230.564741</v>
+        <v>53230.564741000002</v>
       </c>
       <c r="BE26" s="1">
         <v>14.786268</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.340000</v>
+        <v>1052.3399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.170000</v>
+        <v>-229.17</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>53241.756968</v>
+        <v>53241.756968000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>14.789377</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.440000</v>
+        <v>-365.44</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>53252.003322</v>
+        <v>53252.003321999997</v>
       </c>
       <c r="BO26" s="1">
         <v>14.792223</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.640000</v>
+        <v>1264.6400000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.850000</v>
+        <v>-575.85</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>53262.653437</v>
+        <v>53262.653437000001</v>
       </c>
       <c r="BT26" s="1">
         <v>14.795182</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.040000</v>
+        <v>1413.04</v>
       </c>
       <c r="BV26" s="1">
-        <v>-800.791000</v>
+        <v>-800.79100000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>53273.950300</v>
+        <v>53273.950299999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.798320</v>
+        <v>14.79832</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1035.080000</v>
+        <v>-1035.08</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>53287.176620</v>
+        <v>53287.176619999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.801994</v>
+        <v>14.801994000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1984.360000</v>
+        <v>1984.36</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1582.340000</v>
+        <v>-1582.34</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>